--- a/RUDN/Importance/Varible_muatal_class_in_Southern Asia.xlsx
+++ b/RUDN/Importance/Varible_muatal_class_in_Southern Asia.xlsx
@@ -14,50 +14,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="519">
+  <si>
+    <t>Age population, age 03, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 04, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 03, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 02, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 02, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 01, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 01, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 0, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 00-04</t>
+  </si>
+  <si>
+    <t>Age population, age 04, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 00-04</t>
+  </si>
   <si>
     <t>Country_code</t>
   </si>
   <si>
-    <t>Age population, age 01, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 0, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 0, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 02, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 02, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 03, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 03, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 04, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 04, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 00-04</t>
-  </si>
-  <si>
     <t>Labor force, female</t>
   </si>
   <si>
-    <t>Female population 00-04</t>
-  </si>
-  <si>
-    <t>Age population, age 01, female, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 05, female, interpolated</t>
   </si>
   <si>
@@ -109,15 +109,15 @@
     <t>Number of people who are undernourished</t>
   </si>
   <si>
+    <t>People using safely managed drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
     <t>Fixed telephone subscriptions (per 100 people)</t>
   </si>
   <si>
     <t>Incidence of tuberculosis (per 100,000 people)</t>
   </si>
   <si>
-    <t>People using safely managed drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
     <t>Male population 80+</t>
   </si>
   <si>
@@ -193,18 +193,18 @@
     <t>Age population, age 13, female, interpolated</t>
   </si>
   <si>
+    <t>Male population 20-24</t>
+  </si>
+  <si>
+    <t>Age population, age 23, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population, male</t>
+  </si>
+  <si>
     <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
   </si>
   <si>
-    <t>Male population 20-24</t>
-  </si>
-  <si>
-    <t>Age population, age 23, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population, male</t>
-  </si>
-  <si>
     <t>Female population 70-74</t>
   </si>
   <si>
@@ -232,39 +232,45 @@
     <t>Male population 55-59</t>
   </si>
   <si>
+    <t>Age population, age 15, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 13, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, total</t>
+  </si>
+  <si>
+    <t>Male population 70-74</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male</t>
+  </si>
+  <si>
+    <t>Male population 65-69</t>
+  </si>
+  <si>
+    <t>Age population, age 24, male, interpolated</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Age population, age 16, female, interpolated</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Rural population</t>
+  </si>
+  <si>
+    <t>Age population, age 15, male, interpolated</t>
+  </si>
+  <si>
     <t>Secondary education, pupils (% female)</t>
   </si>
   <si>
-    <t>Age population, age 15, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 13, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, total</t>
-  </si>
-  <si>
-    <t>Male population 70-74</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male</t>
-  </si>
-  <si>
-    <t>Male population 65-69</t>
-  </si>
-  <si>
-    <t>Age population, age 24, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 16, female, interpolated</t>
-  </si>
-  <si>
-    <t>Rural population</t>
-  </si>
-  <si>
-    <t>Age population, age 15, male, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 14, male, interpolated</t>
   </si>
   <si>
@@ -289,12 +295,6 @@
     <t>Urban population</t>
   </si>
   <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
     <t>Female population 65-69</t>
   </si>
   <si>
@@ -307,6 +307,9 @@
     <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
     <t>Population ages 00-04, male (% of male population)</t>
   </si>
   <si>
@@ -319,33 +322,36 @@
     <t>Birth rate, crude (per 1,000 people)</t>
   </si>
   <si>
-    <t>Lower secondary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
     <t>Population ages 00-04, female (% of female population)</t>
   </si>
   <si>
     <t>Survival to age 65, male (% of cohort)</t>
   </si>
   <si>
+    <t>Age population, age 18, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, male (% of male population)</t>
+  </si>
+  <si>
     <t>Primary completion rate, male (% of relevant age group)</t>
   </si>
   <si>
-    <t>Age population, age 18, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, male (% of male population)</t>
-  </si>
-  <si>
     <t>Survival to age 65, female (% of cohort)</t>
   </si>
   <si>
     <t>Male population 50-54</t>
   </si>
   <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
     <t>Female population 40-44</t>
   </si>
   <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
     <t>Population ages 05-09, female (% of female population)</t>
   </si>
   <si>
@@ -358,6 +364,9 @@
     <t>Age population, age 25, male, interpolated</t>
   </si>
   <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
     <t>Age population, age 21, female, interpolated</t>
   </si>
   <si>
@@ -370,45 +379,36 @@
     <t>Age population, age 20, female, interpolated</t>
   </si>
   <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
     <t>Female population 20-24</t>
   </si>
   <si>
-    <t>Proportion of seats held by women in national parliaments (%)</t>
-  </si>
-  <si>
     <t>Age dependency ratio, young</t>
   </si>
   <si>
-    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
-  </si>
-  <si>
     <t>Age population, age 22, female, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 25, female, interpolated</t>
+  </si>
+  <si>
     <t>Tuberculosis death rate (per 100,000 people)</t>
   </si>
   <si>
-    <t>Age population, age 25, female, interpolated</t>
+    <t>Male population 25-29</t>
+  </si>
+  <si>
+    <t>Population ages 00-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14 (% of total)</t>
   </si>
   <si>
     <t>Start-up procedures to register a business, male (number)</t>
   </si>
   <si>
-    <t>Male population 25-29</t>
-  </si>
-  <si>
-    <t>Primary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14 (% of total)</t>
-  </si>
-  <si>
     <t>Age population, age 24, female, interpolated</t>
   </si>
   <si>
@@ -451,33 +451,42 @@
     <t>Population ages 00-14, female (% of total)</t>
   </si>
   <si>
+    <t>Population ages 15-64, male (% of total)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services (% of population)</t>
+  </si>
+  <si>
     <t>School enrollment, secondary, female (% gross)</t>
   </si>
   <si>
-    <t>Population ages 15-64, male (% of total)</t>
+    <t>Male population 45-49</t>
+  </si>
+  <si>
+    <t>Time required to start a business, male (days)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (% of working-age population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64 (% of total)</t>
   </si>
   <si>
     <t>School enrollment, tertiary (% gross)</t>
   </si>
   <si>
-    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Male population 45-49</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio (% of working-age population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64 (% of total)</t>
-  </si>
-  <si>
     <t>People using basic drinking water services, urban (% of urban population)</t>
   </si>
   <si>
@@ -490,1081 +499,1078 @@
     <t>Prevalence of anemia among children (% of children under 5)</t>
   </si>
   <si>
-    <t>People using safely managed drinking water services (% of population)</t>
+    <t>Start-up procedures to register a business, female (number)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, total (% of cohort)</t>
+  </si>
+  <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male</t>
+  </si>
+  <si>
+    <t>Male population 30-34</t>
+  </si>
+  <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, male</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male (% of total)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, female</t>
   </si>
   <si>
     <t>People using safely managed drinking water services, urban (% of urban population)</t>
   </si>
   <si>
-    <t>Time required to start a business, male (days)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, male</t>
+    <t>Male population 35-39</t>
+  </si>
+  <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Women's share of population ages 15+ living with HIV (%)</t>
+  </si>
+  <si>
+    <t>Female population 35-39</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Net ODA received (% of GNI)</t>
+  </si>
+  <si>
+    <t>Female population 30-34</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, total</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+  </si>
+  <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>GNI per capita, PPP (current international $)</t>
+  </si>
+  <si>
+    <t>Male population 40-44</t>
+  </si>
+  <si>
+    <t>Population ages 10-14, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Contributing family workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kt)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, female</t>
+  </si>
+  <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Employment in agriculture, male (% of male employment)</t>
   </si>
   <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female (% of total)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, total (% of cohort)</t>
-  </si>
-  <si>
-    <t>Male population 30-34</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male (% of total)</t>
-  </si>
-  <si>
-    <t>Male population 35-39</t>
-  </si>
-  <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, female (number)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Female population 35-39</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Improved water source, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Net ODA received (% of GNI)</t>
-  </si>
-  <si>
-    <t>Female population 30-34</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, total</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, male (% of male population)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, total (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, male (% of male population)</t>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, male</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Urban population (% of total)</t>
+  </si>
+  <si>
+    <t>Rural population (% of total population)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% net)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, male (% of male population)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Rural population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Secondary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, male (%)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages10-14, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Net official development assistance received (current US$)</t>
+  </si>
+  <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>AIDS estimated deaths (UNAIDS estimates)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% net)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Sex ratio at birth (male births per female births)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment in industry, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Employers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
   </si>
   <si>
     <t>Employment in agriculture, female (% of female employment)</t>
   </si>
   <si>
-    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
-  </si>
-  <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, female (% of female population)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, female</t>
-  </si>
-  <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Employment in industry, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>GNI per capita, PPP (current international $)</t>
-  </si>
-  <si>
-    <t>Male population 40-44</t>
-  </si>
-  <si>
-    <t>Population ages 10-14, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Women's share of population ages 15+ living with HIV (%)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kt)</t>
-  </si>
-  <si>
-    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Fertility rate, total (births per woman)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Rural population (% of total population)</t>
-  </si>
-  <si>
-    <t>Urban population (% of total)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (metric tons per capita)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, male (% of male population)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% net)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
-  </si>
-  <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Rural population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Population ages10-14, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, male</t>
-  </si>
-  <si>
-    <t>Net official development assistance received (current US$)</t>
-  </si>
-  <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, male (% of male employment)</t>
+    <t>Own-account workers, male (% of males employed)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Malaria cases reported</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) living with HIV</t>
+  </si>
+  <si>
+    <t>Reported cases of malaria</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% net)</t>
+  </si>
+  <si>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
+    <t>Contraceptive prevalence, any methods (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% net)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% net)</t>
+  </si>
+  <si>
+    <t>Employment in services, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Own-account workers, female (% of females employed)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
   </si>
   <si>
     <t>Vulnerable employment, male (% of male employment)</t>
   </si>
   <si>
-    <t>Vulnerable employment, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, female</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, male (%)</t>
-  </si>
-  <si>
-    <t>Own-account workers, male (% of males employed)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) living with HIV</t>
-  </si>
-  <si>
-    <t>AIDS estimated deaths (UNAIDS estimates)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Secondary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Malaria cases reported</t>
-  </si>
-  <si>
-    <t>Reported cases of malaria</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, male (% of male employment)</t>
+    <t>Urban population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% net)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation (% of population)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, height for age (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Public spending on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment in industry, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Prevalence of undernourishment (% of population)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Employers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population, male (% of total)</t>
+  </si>
+  <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
+    <t>GDP (current US$)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Prevalence of stunting, height for age, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Prevalence of underweight, weight for age, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Children (0-14) living with HIV</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult female (% of females ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Pregnant women receiving prenatal care of at least four visits (% of pregnant women)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
+  </si>
+  <si>
+    <t>Prevalence of diarrhea (% of children under 5): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting, weight for height, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Place of delivery (births at health facility) (% of births): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Net ODA received per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Hospital beds (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Nurses and midwives (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, female (%)</t>
+  </si>
+  <si>
+    <t>Employment in services, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Prevalence of underweight, weight for age (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, height for age, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, weight for age (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Antenatal care (doctor) (% of women with a birth): Q4</t>
+  </si>
+  <si>
+    <t>Prevalence of stunting, height for age, female (% of children under 5)</t>
   </si>
   <si>
     <t>Antenatal care (any skilled personnel) (% of women with a birth): Q4</t>
   </si>
   <si>
-    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% net)</t>
-  </si>
-  <si>
-    <t>Employment in services, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Gross capital formation (% of GDP)</t>
-  </si>
-  <si>
-    <t>GDP per capita (Current US$)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Improved water source, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% net)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Hospital beds (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% net)</t>
-  </si>
-  <si>
-    <t>External resources for health (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Sex ratio at birth (male births per female births)</t>
-  </si>
-  <si>
-    <t>Employers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% net)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% net)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, female (%)</t>
-  </si>
-  <si>
-    <t>Contraceptive prevalence, any methods (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Urban population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation (% of population)</t>
-  </si>
-  <si>
-    <t>Improved water source (% of population with access)</t>
+    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Place of delivery (births at health facility) (% of births): Q3</t>
+  </si>
+  <si>
+    <t>GINI index (World Bank estimate)</t>
+  </si>
+  <si>
+    <t>GNI, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Women who were first married by age 18 (% of women ages 20-24)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at national poverty line (% of population)</t>
+  </si>
+  <si>
+    <t>Antenatal care (any skilled personnel) (% of women with a birth): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>Treatment of diarrhea (either ORS or RHS) (% of children under 5): Q4</t>
+  </si>
+  <si>
+    <t>Place of delivery (births at health facility) (% of births): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, weight for age, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
   </si>
   <si>
     <t>Births attended by skilled health staff (% of total)</t>
   </si>
   <si>
-    <t>People practicing open defecation, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, female (% of female population)</t>
+    <t>Gross graduation ratio, primary, female (%)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Treatment of diarrhea (either ORS or RHS) (% of children under 5): Q2</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth male (% of males ages 15-24)</t>
+  </si>
+  <si>
+    <t>Assistance during delivery (doctor) (% of births): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, private consumption (LCU per international $)</t>
   </si>
   <si>
     <t>Antenatal care (any skilled personnel) (% of women with a birth): Q2</t>
   </si>
   <si>
-    <t>Own-account workers, female (% of females employed)</t>
+    <t>Antenatal care (doctor) (% of women with a birth): Q2</t>
+  </si>
+  <si>
+    <t>Treatment of acute respiratory infection (ARI) (% of children under 5 taken to a health provider): Q3</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, weight for height, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Treatment of acute respiratory infection (ARI) (% of children under 5 taken to a health provider): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Treatment of diarrhea (either ORS or RHS) (% of children under 5): Q3</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Children orphaned by HIV/AIDS</t>
+  </si>
+  <si>
+    <t>Prevalence of diarrhea (% of children under 5): Q2</t>
+  </si>
+  <si>
+    <t>Assistance during delivery (any skilled personnel) (% of births): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Assistance during delivery (any skilled personnel) (% of births): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Assistance during delivery (doctor) (% of births): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Assistance during delivery (doctor) (% of births): Q2</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Prevalence of severe wasting, weight for height, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Prevalence of severe wasting, weight for height (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Unemployment, total (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Contraceptive prevalence, modern methods (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, height for age, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Antenatal care (doctor) (% of women with a birth): Q3</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at national poverty lines (% of population)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth female (% of females ages 15-24)</t>
+  </si>
+  <si>
+    <t>Treatment of acute respiratory infection (ARI) (% of children under 5 taken to a health provider): Q4</t>
+  </si>
+  <si>
+    <t>Tertiary education, academic staff (% female)</t>
+  </si>
+  <si>
+    <t>Assistance during delivery (doctor) (% of births): Q3</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting, weight for height, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Antenatal care (doctor) (% of women with a birth): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Prevalence of acute respiratory infection (ARI) (% of children under 5): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Income share held by lowest 20%</t>
+  </si>
+  <si>
+    <t>Antenatal care (any skilled personnel) (% of women with a birth): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Prevalence of diarrhea (% of children under 5): Q4</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
+  </si>
+  <si>
+    <t>Prevalence of underweight, weight for age, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Place of delivery (births at health facility) (% of births): Q2</t>
   </si>
   <si>
     <t>Pregnant women receiving prenatal care (%)</t>
   </si>
   <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
+    <t>Assistance during delivery (doctor) (% of births): Q4</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth total (% of people ages 15-24)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>Diarrhea treatment (% of children under 5 receiving oral rehydration and continued feeding)</t>
+  </si>
+  <si>
+    <t>Treatment of acute respiratory infection (ARI) (% of children under 5 taken to a health provider): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Prevalence of diarrhea (% of children under 5): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Treatment of acute respiratory infection (ARI) (% of children under 5 taken to a health provider): Q2</t>
+  </si>
+  <si>
+    <t>Antenatal care (doctor) (% of women with a birth): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Ratio of young literate females to males (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Prevalence of diarrhea (% of children under 5): Q3</t>
+  </si>
+  <si>
+    <t>Assistance during delivery (any skilled personnel) (% of births): Q3</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
+  </si>
+  <si>
+    <t>Physicians (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Treatment of diarrhea (either ORS or RHS) (% of children under 5): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Total debt service (% of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Newborns protected against tetanus (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
+  </si>
+  <si>
+    <t>Antenatal care (any skilled personnel) (% of women with a birth): Q3</t>
+  </si>
+  <si>
+    <t>Place of delivery (births at health facility) (% of births): Q4</t>
   </si>
   <si>
     <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
   </si>
   <si>
-    <t>People using basic drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, female (% of female population)</t>
-  </si>
-  <si>
-    <t>GNI per capita, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, height for age (% of children under 5)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population, male (% of total)</t>
-  </si>
-  <si>
-    <t>Prevalence of undernourishment (% of population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Death rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, female (% of female population)</t>
-  </si>
-  <si>
-    <t>GDP (current US$)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
-  </si>
-  <si>
-    <t>Employment in services, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment in industry, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Government expenditure on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (all forms)</t>
-  </si>
-  <si>
-    <t>Prevalence of underweight, weight for age, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, height for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Prevalence of diarrhea (% of children under 5): Q4</t>
-  </si>
-  <si>
-    <t>Treatment of diarrhea (either ORS or RHS) (% of children under 5): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Net ODA received per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Assistance during delivery (any skilled personnel) (% of births): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Public spending on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, female (%)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, weight for age, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Place of delivery (births at health facility) (% of births): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Income share held by lowest 20%</t>
-  </si>
-  <si>
-    <t>Children orphaned by HIV/AIDS</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Antenatal care (any skilled personnel) (% of women with a birth): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Ratio of young literate females to males (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Assistance during delivery (doctor) (% of births): Q5 (highest)</t>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
+    <t>Prevalence of acute respiratory infection (ARI) (% of children under 5): Q4</t>
+  </si>
+  <si>
+    <t>Treatment of diarrhea (either ORS or RHS) (% of children under 5): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
+  </si>
+  <si>
+    <t>Prevalence of acute respiratory infection (ARI) (% of children under 5): Q2</t>
+  </si>
+  <si>
+    <t>Assistance during delivery (any skilled personnel) (% of births): Q4</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, weight for age, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of acute respiratory infection (ARI) (% of children under 5): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Assistance during delivery (any skilled personnel) (% of births): Q2</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, male (%)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, weight for height, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, female (% of employment)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult male (% of males ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
   </si>
   <si>
     <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
   </si>
   <si>
-    <t>Prevalence of underweight, weight for age (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
-  </si>
-  <si>
-    <t>GNI, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Prevalence of severe wasting, weight for height (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Treatment of diarrhea (either ORS or RHS) (% of children under 5): Q3</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Pregnant women receiving prenatal care of at least four visits (% of pregnant women)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at national poverty line (% of population)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, weight for age (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (%, all forms)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Treatment of acute respiratory infection (ARI) (% of children under 5 taken to a health provider): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Antenatal care (doctor) (% of women with a birth): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Antenatal care (doctor) (% of women with a birth): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth male (% of males ages 15-24)</t>
+    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, primary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Prevalence of acute respiratory infection (ARI) (% of children under 5): Q3</t>
+  </si>
+  <si>
+    <t>Children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, male (% of male population)</t>
   </si>
   <si>
     <t>ARI treatment (% of children under 5 taken to a health provider)</t>
   </si>
   <si>
-    <t>Prevalence of acute respiratory infection (ARI) (% of children under 5): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, private consumption (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Assistance during delivery (any skilled personnel) (% of births): Q4</t>
-  </si>
-  <si>
-    <t>Prevalence of stunting, height for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of acute respiratory infection (ARI) (% of children under 5): Q4</t>
-  </si>
-  <si>
-    <t>Place of delivery (births at health facility) (% of births): Q2</t>
-  </si>
-  <si>
-    <t>Prevalence of stunting, height for age, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Place of delivery (births at health facility) (% of births): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Nurses and midwives (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Assistance during delivery (doctor) (% of births): Q3</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Prevalence of diarrhea (% of children under 5): Q3</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Prevalence of diarrhea (% of children under 5): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Antenatal care (any skilled personnel) (% of women with a birth): Q3</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, weight for height, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Newborns protected against tetanus (%)</t>
-  </si>
-  <si>
-    <t>Unemployment, total (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Trade (% of GDP)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth total (% of people ages 15-24)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult female (% of females ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Treatment of acute respiratory infection (ARI) (% of children under 5 taken to a health provider): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Women who were first married by age 18 (% of women ages 20-24)</t>
-  </si>
-  <si>
-    <t>Assistance during delivery (doctor) (% of births): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Children (0-14) living with HIV</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Treatment of diarrhea (either ORS or RHS) (% of children under 5): Q2</t>
-  </si>
-  <si>
-    <t>Prevalence of diarrhea (% of children under 5): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Contraceptive prevalence, modern methods (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at national poverty lines (% of population)</t>
-  </si>
-  <si>
-    <t>Total debt service (% of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Place of delivery (births at health facility) (% of births): Q3</t>
-  </si>
-  <si>
-    <t>Tertiary education, academic staff (% female)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Prevalence of underweight, weight for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Treatment of acute respiratory infection (ARI) (% of children under 5 taken to a health provider): Q2</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Assistance during delivery (any skilled personnel) (% of births): Q2</t>
-  </si>
-  <si>
-    <t>Prevalence of diarrhea (% of children under 5): Q2</t>
-  </si>
-  <si>
-    <t>Place of delivery (births at health facility) (% of births): Q4</t>
-  </si>
-  <si>
-    <t>Prevalence of severe wasting, weight for height, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, weight for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Physicians (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Treatment of acute respiratory infection (ARI) (% of children under 5 taken to a health provider): Q4</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult male (% of males ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Prevalence of acute respiratory infection (ARI) (% of children under 5): Q2</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Antenatal care (doctor) (% of women with a birth): Q3</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting, male (% of children under 5)</t>
+    <t>Population ages 30-34, male (% of male population)</t>
   </si>
   <si>
     <t>Comprehensive correct knowledge of HIV/AIDS, ages 15-24, female (2 prevent ways and reject 3 misconceptions)</t>
   </si>
   <si>
-    <t>Prevalence of acute respiratory infection (ARI) (% of children under 5): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Prevalence of acute respiratory infection (ARI) (% of children under 5): Q3</t>
-  </si>
-  <si>
-    <t>Assistance during delivery (any skilled personnel) (% of births): Q3</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth female (% of females ages 15-24)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, female (% of female adults)</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Assistance during delivery (doctor) (% of births): Q4</t>
-  </si>
-  <si>
-    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Antenatal care (any skilled personnel) (% of women with a birth): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Diarrhea treatment (% of children under 5 receiving oral rehydration and continued feeding)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, weight for height, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Treatment of diarrhea (either ORS or RHS) (% of children under 5): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting, weight for height, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Assistance during delivery (any skilled personnel) (% of births): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (current US$)</t>
-  </si>
-  <si>
-    <t>Assistance during delivery (doctor) (% of births): Q2</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, primary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Antenatal care (doctor) (% of women with a birth): Q2</t>
-  </si>
-  <si>
-    <t>Treatment of acute respiratory infection (ARI) (% of children under 5 taken to a health provider): Q3</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Antenatal care (doctor) (% of women with a birth): Q4</t>
-  </si>
-  <si>
-    <t>GINI index (World Bank estimate)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, height for age, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Treatment of diarrhea (either ORS or RHS) (% of children under 5): Q4</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting, weight for height, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, male (% of male population)</t>
-  </si>
-  <si>
     <t>CO2 emissions (kg per PPP $ of GDP)</t>
   </si>
   <si>
     <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
   </si>
   <si>
+    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Prevalence of severe wasting, weight for height, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
     <t>Unemployment, male (% of male labor force) (national estimate)</t>
   </si>
   <si>
-    <t>School enrollment, primary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Prevalence of severe wasting, weight for height, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, male (%)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, female (% of employment)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% gross)</t>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, male (% of employment)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
   </si>
   <si>
     <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
   </si>
   <si>
-    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
+    <t>Access to anti-retroviral drugs, male (%)</t>
   </si>
   <si>
     <t>Access to anti-retroviral drugs, female (%)</t>
   </si>
   <si>
-    <t>Time-related underemployment, male (% of employment)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
-    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
-  </si>
-  <si>
     <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
   </si>
   <si>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Proportion of women in ministerial level positions (%)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, female (% ages 15-24)</t>
+  </si>
+  <si>
     <t>Prevalence of HIV, male (% ages 15-24)</t>
   </si>
   <si>
-    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, male (%)</t>
-  </si>
-  <si>
-    <t>Proportion of women in ministerial level positions (%)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of male adults)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
-    <t>Inflation, consumer prices (annual %)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, female (% ages 15-24)</t>
+    <t>Region_code</t>
   </si>
   <si>
     <t>GDP growth (annual %)</t>
   </si>
   <si>
+    <t>Reion_sub_code</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
     <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Internet users (per 100 people)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
   </si>
 </sst>
 </file>
@@ -1922,7 +1928,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B518"/>
+  <dimension ref="A1:B520"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2178,7 +2184,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.8734719835190292</v>
+        <v>0.869145060442106</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2186,7 +2192,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.8583567711980088</v>
+        <v>0.8685922745527817</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2194,7 +2200,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.8575195598742977</v>
+        <v>0.8583567711980088</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2202,7 +2208,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.8562525309630381</v>
+        <v>0.8575195598742977</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2242,7 +2248,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.8423884686765408</v>
+        <v>0.8427200336632781</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2314,7 +2320,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.8025001278413655</v>
+        <v>0.8038737542149921</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2410,7 +2416,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.7823439946586255</v>
+        <v>0.7823359294022059</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2418,7 +2424,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.7823359294022059</v>
+        <v>0.7808821748234511</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2426,7 +2432,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.7808821748234511</v>
+        <v>0.7808435649290721</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2434,7 +2440,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.7808435649290721</v>
+        <v>0.7777929385574267</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2514,7 +2520,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.7682802623383143</v>
+        <v>0.7676797522460288</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2522,7 +2528,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.7676797522460288</v>
+        <v>0.7653258561421326</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2530,7 +2536,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.7653258561421326</v>
+        <v>0.7624982350452809</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2538,7 +2544,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.7624982350452809</v>
+        <v>0.759742897434174</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2546,7 +2552,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.759742897434174</v>
+        <v>0.7591252191722648</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2554,7 +2560,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.7591252191722648</v>
+        <v>0.7582202213922671</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2562,7 +2568,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.7582202213922671</v>
+        <v>0.7573761545923923</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2570,7 +2576,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.7573761545923923</v>
+        <v>0.7570760891607482</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2586,7 +2592,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.7545885699240771</v>
+        <v>0.7546663787152701</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2594,7 +2600,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.7530354755825213</v>
+        <v>0.7545885699240771</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2602,7 +2608,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.7521578809549265</v>
+        <v>0.7530354755825213</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2610,7 +2616,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.7505896575117033</v>
+        <v>0.7522585450663024</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2618,7 +2624,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.7499600787571243</v>
+        <v>0.7521578809549265</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2626,7 +2632,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.7498338161308618</v>
+        <v>0.7505896575117033</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2634,7 +2640,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.7491587967058424</v>
+        <v>0.7499600787571243</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2642,7 +2648,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.7486624180844637</v>
+        <v>0.7498338161308618</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2650,7 +2656,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.7471361665582124</v>
+        <v>0.7491587967058424</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2658,7 +2664,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.743825027910535</v>
+        <v>0.7486624180844637</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2666,7 +2672,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.7423758770921149</v>
+        <v>0.7471361665582124</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2674,7 +2680,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.7422340194079107</v>
+        <v>0.743825027910535</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2714,7 +2720,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.7345171061882803</v>
+        <v>0.7363885480997046</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2722,7 +2728,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.7326294926765382</v>
+        <v>0.7345171061882803</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2730,7 +2736,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.7310690339045411</v>
+        <v>0.7326294926765382</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2738,7 +2744,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.7309225190945647</v>
+        <v>0.7310690339045411</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2746,7 +2752,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.7306879986491552</v>
+        <v>0.7309225190945647</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2770,7 +2776,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.7285785456268747</v>
+        <v>0.728058369355415</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2778,7 +2784,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.728058369355415</v>
+        <v>0.7272754901910405</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2786,7 +2792,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.7272754901910405</v>
+        <v>0.7268764282997573</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2810,7 +2816,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.7246841450504664</v>
+        <v>0.7254179542149999</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2818,7 +2824,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.7229806990327803</v>
+        <v>0.7246841450504664</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2826,7 +2832,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.7227203046423503</v>
+        <v>0.7243771492851654</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2834,7 +2840,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.7209739968086555</v>
+        <v>0.7229806990327803</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2842,7 +2848,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.7209251056413433</v>
+        <v>0.7227203046423503</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2850,7 +2856,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.720491977414023</v>
+        <v>0.7217752788599374</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2858,7 +2864,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.7199271576184341</v>
+        <v>0.7209251056413433</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2866,7 +2872,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.7199047441344821</v>
+        <v>0.7205862913372281</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2874,7 +2880,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.7186563130783588</v>
+        <v>0.720491977414023</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2882,7 +2888,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.7152302252772709</v>
+        <v>0.7199271576184341</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2890,7 +2896,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.7149074523154684</v>
+        <v>0.7199047441344821</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2898,7 +2904,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.713297381918214</v>
+        <v>0.7186563130783588</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2906,7 +2912,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.7132135946914158</v>
+        <v>0.7152809023837234</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2914,7 +2920,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.7124448162418617</v>
+        <v>0.7152302252772709</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2922,7 +2928,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.7122360305888515</v>
+        <v>0.713297381918214</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2930,7 +2936,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.7118151307564071</v>
+        <v>0.7124448162418617</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2938,7 +2944,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.7112147812528533</v>
+        <v>0.7118151307564071</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2946,7 +2952,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.7070558065086663</v>
+        <v>0.7107670134948345</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2954,7 +2960,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.706202927788435</v>
+        <v>0.7070558065086663</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2962,7 +2968,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.7048808206328769</v>
+        <v>0.7042753809490976</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2978,7 +2984,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.7042753809490976</v>
+        <v>0.7037492383155148</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -3018,7 +3024,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.6957456786888008</v>
+        <v>0.694081477505369</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -3026,7 +3032,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.690309191116494</v>
+        <v>0.6882786895667614</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -3034,7 +3040,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.6871963467626232</v>
+        <v>0.6859142954805719</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -3098,7 +3104,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.6742630367128122</v>
+        <v>0.6730376295154494</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -3106,7 +3112,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.6730376295154494</v>
+        <v>0.6719648101368556</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -3114,7 +3120,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.6715492671276464</v>
+        <v>0.6710246311918691</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -3122,7 +3128,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.6703622460342915</v>
+        <v>0.669737160385242</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -3138,7 +3144,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.6623725594388359</v>
+        <v>0.6683540629113656</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -3146,7 +3152,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.6623725594388359</v>
+        <v>0.6651922046745598</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -3154,7 +3160,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.660827481783157</v>
+        <v>0.6623725594388359</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -3162,7 +3168,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.6600867834589355</v>
+        <v>0.6623725594388359</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -3170,7 +3176,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.6573334600117342</v>
+        <v>0.660827481783157</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -3178,7 +3184,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.6512232955917572</v>
+        <v>0.6600867834589355</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -3186,7 +3192,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.6506381009793385</v>
+        <v>0.6587287543071336</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -3194,7 +3200,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.6495926352740002</v>
+        <v>0.6573334600117342</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -3202,7 +3208,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.649170964025702</v>
+        <v>0.6512232955917572</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -3210,7 +3216,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.649025970130708</v>
+        <v>0.6506381009793385</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -3218,7 +3224,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.6483935746816467</v>
+        <v>0.6499017012080663</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -3226,7 +3232,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.6474394161117329</v>
+        <v>0.6461706339888784</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -3234,7 +3240,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.6456141268356401</v>
+        <v>0.6449136255559766</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -3258,7 +3264,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.6402379922203474</v>
+        <v>0.637482265437965</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -3266,7 +3272,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.637482265437965</v>
+        <v>0.6340391738883302</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -3274,7 +3280,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.6352480507461711</v>
+        <v>0.6315486655770226</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -3282,7 +3288,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.6340391738883302</v>
+        <v>0.6312821848812669</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -3290,7 +3296,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.6312821848812669</v>
+        <v>0.6306721655510164</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -3306,7 +3312,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.6277240229886087</v>
+        <v>0.6290941046106073</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3314,7 +3320,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.6275655929011001</v>
+        <v>0.629012890261859</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -3322,7 +3328,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.626179497988127</v>
+        <v>0.6277240229886087</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3330,7 +3336,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.6257246782198651</v>
+        <v>0.6257397354559733</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -3338,7 +3344,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.625212704875284</v>
+        <v>0.6257246782198651</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -3346,7 +3352,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.6246803174500042</v>
+        <v>0.6252541490031178</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3354,7 +3360,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.6228231131586206</v>
+        <v>0.625212704875284</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3362,7 +3368,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.6227656536311266</v>
+        <v>0.6246803174500042</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3370,7 +3376,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.6207548288787976</v>
+        <v>0.6227656536311266</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3378,7 +3384,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.6193622731388875</v>
+        <v>0.6207548288787976</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3386,7 +3392,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.6188267222631911</v>
+        <v>0.6193622731388875</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3394,7 +3400,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.61583066949688</v>
+        <v>0.6188267222631911</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3402,7 +3408,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.6146344837202475</v>
+        <v>0.6186408939766579</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3410,7 +3416,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.6117728119640884</v>
+        <v>0.6159499625625724</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3418,7 +3424,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.6099750637721095</v>
+        <v>0.6159251500106575</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3426,7 +3432,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.6098100741613259</v>
+        <v>0.61583066949688</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3434,7 +3440,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.605726528322337</v>
+        <v>0.6117728119640884</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3442,7 +3448,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.6039613232375651</v>
+        <v>0.6099750637721095</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3450,7 +3456,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.6035173704440304</v>
+        <v>0.6098100741613259</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3458,7 +3464,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.6029236129637989</v>
+        <v>0.605726528322337</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3466,7 +3472,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.6005469839961788</v>
+        <v>0.6039613232375651</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3474,7 +3480,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.5990237205631042</v>
+        <v>0.6029236129637989</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3482,7 +3488,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.5986773045780094</v>
+        <v>0.5990237205631042</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3490,7 +3496,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.5977954796603755</v>
+        <v>0.5976612803699479</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3498,7 +3504,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.5976612803699479</v>
+        <v>0.5973412810206278</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3506,7 +3512,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.5973412810206278</v>
+        <v>0.5967498447765434</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3514,7 +3520,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.5911572170778527</v>
+        <v>0.5955990840333549</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3522,7 +3528,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.5903672386849292</v>
+        <v>0.5912353570906375</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3530,7 +3536,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.5902747167698754</v>
+        <v>0.5901195044566288</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3538,7 +3544,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.5900498500968958</v>
+        <v>0.5894408397947293</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3546,7 +3552,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.5894408397947293</v>
+        <v>0.5869226347548988</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3554,7 +3560,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.5891239140883573</v>
+        <v>0.5847506526132624</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3562,7 +3568,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.5877185999118444</v>
+        <v>0.5844203177123302</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3570,7 +3576,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.5864418655241295</v>
+        <v>0.5828530453404821</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3578,7 +3584,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.5847506526132624</v>
+        <v>0.5822540856514919</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3586,7 +3592,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.5844203177123302</v>
+        <v>0.5810154337002118</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3602,7 +3608,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.5773504201153228</v>
+        <v>0.5773421117172002</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3610,7 +3616,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.5773421117172002</v>
+        <v>0.5752801646541335</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3618,7 +3624,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.576116000826508</v>
+        <v>0.5740046447729932</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3626,7 +3632,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.5752801646541335</v>
+        <v>0.571482387561395</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3634,7 +3640,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.5740046447729932</v>
+        <v>0.5713056173461351</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3642,7 +3648,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.5729492889013836</v>
+        <v>0.5701370210562271</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3650,7 +3656,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.571482387561395</v>
+        <v>0.5689572837811365</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3658,7 +3664,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.5701370210562271</v>
+        <v>0.5679274001927601</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3666,7 +3672,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.569797514754286</v>
+        <v>0.5674231712202169</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3674,7 +3680,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.5679274001927601</v>
+        <v>0.5666887185995262</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3682,7 +3688,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.565586279479479</v>
+        <v>0.5663792622551513</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3690,7 +3696,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.5627954192527909</v>
+        <v>0.565586279479479</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3698,7 +3704,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.5599447686983003</v>
+        <v>0.5650928846784429</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3706,7 +3712,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.5599447686983003</v>
+        <v>0.5641540080434959</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3714,7 +3720,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.556415180970145</v>
+        <v>0.5639931265288598</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3722,7 +3728,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.5563813348954818</v>
+        <v>0.5627954192527909</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3730,7 +3736,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.555045225228546</v>
+        <v>0.5599447686983003</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3738,7 +3744,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.5542222206573804</v>
+        <v>0.5599447686983003</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3746,7 +3752,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.5530352971035413</v>
+        <v>0.556415180970145</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3754,7 +3760,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.5506146219145036</v>
+        <v>0.5563813348954818</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3762,7 +3768,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.5497013364310745</v>
+        <v>0.555045225228546</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3770,7 +3776,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.5458087641385923</v>
+        <v>0.5542222206573804</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3778,7 +3784,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.5440283973836777</v>
+        <v>0.5526813425360808</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3786,7 +3792,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.5434994222446796</v>
+        <v>0.5506146219145036</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3794,7 +3800,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.5422839750149351</v>
+        <v>0.5462048137119875</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3802,7 +3808,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.5389100004417748</v>
+        <v>0.5422839750149351</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3810,7 +3816,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.5368889702787421</v>
+        <v>0.5389100004417748</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3818,7 +3824,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.5358273631821013</v>
+        <v>0.5368889702787421</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3826,7 +3832,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.5317923471096206</v>
+        <v>0.5358273631821013</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3834,7 +3840,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.5300312244603402</v>
+        <v>0.5347435111367105</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3842,7 +3848,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.5299903967855211</v>
+        <v>0.5341465135515908</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3850,7 +3856,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.5289265964036201</v>
+        <v>0.5323684705475864</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3858,7 +3864,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.5286257161614496</v>
+        <v>0.5317923471096206</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3866,7 +3872,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.527305563623077</v>
+        <v>0.5299903967855211</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3874,7 +3880,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.527305563623077</v>
+        <v>0.5289027069477132</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3882,7 +3888,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.5266942532851011</v>
+        <v>0.527305563623077</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3890,7 +3896,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.526424960029698</v>
+        <v>0.527305563623077</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3898,7 +3904,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.5261325572164699</v>
+        <v>0.5266942532851011</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3906,7 +3912,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.5252932164689534</v>
+        <v>0.526424960029698</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3914,7 +3920,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.518751211201061</v>
+        <v>0.5219656639838637</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3922,7 +3928,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.5159170728526696</v>
+        <v>0.5214915921155605</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3930,7 +3936,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.5155536465141539</v>
+        <v>0.5197004963276686</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3938,7 +3944,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.5148882783855502</v>
+        <v>0.515892758105343</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3946,7 +3952,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.5101190657872352</v>
+        <v>0.5155536465141539</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3954,7 +3960,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.5065532109465358</v>
+        <v>0.514185208979367</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3962,7 +3968,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.5004822705547687</v>
+        <v>0.5126423858281317</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3970,7 +3976,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.4975368454320774</v>
+        <v>0.5108576395000417</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3978,7 +3984,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.4975231758449383</v>
+        <v>0.5089538086901344</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3986,7 +3992,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.4952203994297624</v>
+        <v>0.5077554141005398</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3994,7 +4000,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.4952203994297624</v>
+        <v>0.5043898798890485</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -4002,7 +4008,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.4938597057943324</v>
+        <v>0.502426548302437</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -4010,7 +4016,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.4933480091713558</v>
+        <v>0.5011156260436735</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -4018,7 +4024,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.4919765558660443</v>
+        <v>0.500478914709775</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -4026,7 +4032,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.489195175924914</v>
+        <v>0.4984383470191209</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -4034,7 +4040,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.4886252930358066</v>
+        <v>0.4971752055152761</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -4042,7 +4048,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.4867022161127297</v>
+        <v>0.4952203994297624</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -4050,7 +4056,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.4861445043291306</v>
+        <v>0.4952203994297624</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -4058,7 +4064,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.4854635013519675</v>
+        <v>0.4951647755417867</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -4066,7 +4072,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.4836756502653412</v>
+        <v>0.494817902086313</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -4074,7 +4080,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.4828465165714471</v>
+        <v>0.4919765558660443</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -4082,7 +4088,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.4827983225503336</v>
+        <v>0.4886252930358066</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -4090,7 +4096,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.4821717335374436</v>
+        <v>0.487493747274607</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -4098,7 +4104,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.4817012280122599</v>
+        <v>0.4849449911230383</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -4106,7 +4112,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.4812339331079016</v>
+        <v>0.48412666666218</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -4114,7 +4120,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.4809139910332263</v>
+        <v>0.4826628739349943</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -4122,7 +4128,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.4782735679446142</v>
+        <v>0.4824089333213635</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -4130,7 +4136,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.477236013516916</v>
+        <v>0.4821717335374436</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -4138,7 +4144,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.4764596298686659</v>
+        <v>0.4782735679446142</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -4146,7 +4152,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.4754017034287625</v>
+        <v>0.4777503004062715</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -4154,7 +4160,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.4743412969443146</v>
+        <v>0.477236013516916</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -4162,7 +4168,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.4742414342635541</v>
+        <v>0.4764596298686659</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -4170,7 +4176,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.4740287000680983</v>
+        <v>0.4763908328321094</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -4178,7 +4184,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.4739533808048688</v>
+        <v>0.4750182737672426</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -4186,7 +4192,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.4730679004226386</v>
+        <v>0.4744211375709992</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -4194,7 +4200,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.4718875479719109</v>
+        <v>0.4743412969443146</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -4202,7 +4208,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.4706099833083297</v>
+        <v>0.4735937649455186</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -4210,7 +4216,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.4695932900970667</v>
+        <v>0.4728334943489796</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -4218,7 +4224,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.4691985074252609</v>
+        <v>0.4708109616298413</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -4226,7 +4232,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.4681787874423975</v>
+        <v>0.4706099833083297</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -4234,7 +4240,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.4680693829552989</v>
+        <v>0.4687739948583578</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -4242,7 +4248,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.4678840618253381</v>
+        <v>0.4681787874423975</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -4250,7 +4256,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.4667831147740191</v>
+        <v>0.4680693829552989</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -4258,7 +4264,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.4667831147740191</v>
+        <v>0.4679116088000752</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -4266,7 +4272,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.4661161442178547</v>
+        <v>0.4678840618253381</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -4274,7 +4280,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.4655046637979503</v>
+        <v>0.4672733497357027</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -4282,7 +4288,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.464735795485687</v>
+        <v>0.4667831147740191</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -4290,7 +4296,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.464369530535117</v>
+        <v>0.4667831147740191</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -4298,7 +4304,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.4638057236063216</v>
+        <v>0.465657965577972</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -4306,7 +4312,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.4626825208135594</v>
+        <v>0.4606314903376842</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -4314,7 +4320,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.4599029136999595</v>
+        <v>0.4570383555795494</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -4322,7 +4328,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.4586097274789638</v>
+        <v>0.4558537977518051</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -4330,7 +4336,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.4570383555795494</v>
+        <v>0.4552930557186541</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -4338,7 +4344,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.4558537977518051</v>
+        <v>0.4534055627739006</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4346,7 +4352,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.4534055627739006</v>
+        <v>0.4532241100557322</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -4354,7 +4360,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.4532241100557322</v>
+        <v>0.4470569683243195</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4362,7 +4368,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.4526724423564681</v>
+        <v>0.4469823393554075</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -4370,7 +4376,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.4519103147642041</v>
+        <v>0.446385208114946</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -4378,7 +4384,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.4491858649964333</v>
+        <v>0.4456557944744355</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -4386,7 +4392,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.4470569683243195</v>
+        <v>0.4401741819165004</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -4394,7 +4400,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.4460874117057243</v>
+        <v>0.4377620175742682</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -4402,7 +4408,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.4408552045628753</v>
+        <v>0.4358811285409494</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -4410,7 +4416,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.4388838973077887</v>
+        <v>0.4349207162475295</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -4418,7 +4424,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.4369850796167467</v>
+        <v>0.432864759547618</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -4426,7 +4432,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.4354582721295204</v>
+        <v>0.4307603181359114</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -4434,7 +4440,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.432864759547618</v>
+        <v>0.4304626434240735</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -4442,7 +4448,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.4323060180742175</v>
+        <v>0.4303068678106943</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -4450,7 +4456,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.4307603181359114</v>
+        <v>0.4300008169824749</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -4458,7 +4464,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.4294622264332888</v>
+        <v>0.4292384917423178</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -4466,7 +4472,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.4292384917423178</v>
+        <v>0.4278474823906944</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -4474,7 +4480,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.4292384917423178</v>
+        <v>0.4236286326607108</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -4482,7 +4488,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.4279265205524572</v>
+        <v>0.4236286326607108</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -4490,7 +4496,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.4278474823906944</v>
+        <v>0.4233338439462107</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4498,7 +4504,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.4236286326607108</v>
+        <v>0.4206619643908982</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -4506,7 +4512,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.4236286326607108</v>
+        <v>0.4205872072728356</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -4514,7 +4520,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.4209159401273703</v>
+        <v>0.419491024526538</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -4522,7 +4528,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.4206619643908982</v>
+        <v>0.4192239222093908</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -4530,7 +4536,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.4205872072728356</v>
+        <v>0.4182186424408185</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4538,7 +4544,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.419491024526538</v>
+        <v>0.4161414495482239</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -4546,7 +4552,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.4192239222093908</v>
+        <v>0.4152574388196897</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -4554,7 +4560,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.4182186424408185</v>
+        <v>0.4125366581606269</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4562,7 +4568,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.4160980570036403</v>
+        <v>0.4108266427486886</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -4570,7 +4576,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.4158990721479474</v>
+        <v>0.4104682971037072</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -4578,7 +4584,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.4148129723695693</v>
+        <v>0.4071786881391954</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -4586,7 +4592,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.4125538828470434</v>
+        <v>0.4031326016709549</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -4594,7 +4600,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>0.4104682971037072</v>
+        <v>0.4030200623883748</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -4602,7 +4608,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.4097298782070524</v>
+        <v>0.4026281466791282</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -4610,7 +4616,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.4081540614214769</v>
+        <v>0.3996748568064015</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -4618,7 +4624,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0.4070152594332486</v>
+        <v>0.3993656782349135</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -4626,7 +4632,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>0.4060999296621803</v>
+        <v>0.3992868924657882</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -4634,7 +4640,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.4039098244031136</v>
+        <v>0.3992432475114469</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -4642,7 +4648,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>0.4036070060819363</v>
+        <v>0.3991549461491823</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -4650,7 +4656,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.401826404300399</v>
+        <v>0.398662554261549</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -4658,7 +4664,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>0.4008454937756696</v>
+        <v>0.3976825841386149</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -4666,7 +4672,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.3998254062004465</v>
+        <v>0.3974055779218606</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4674,7 +4680,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.3991590026617851</v>
+        <v>0.396721589306781</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -4682,7 +4688,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.3976825841386149</v>
+        <v>0.3963463847588151</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -4690,7 +4696,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.3960390225948351</v>
+        <v>0.3952308068895489</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -4698,7 +4704,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>0.3957891695381381</v>
+        <v>0.394337709673217</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -4706,7 +4712,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.3952308068895489</v>
+        <v>0.3935224562620381</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -4714,7 +4720,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.3918549637106243</v>
+        <v>0.3931675350369674</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -4722,7 +4728,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>0.3912846334617346</v>
+        <v>0.391373074383921</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -4730,7 +4736,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.3900000061015012</v>
+        <v>0.3899864127007349</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -4738,7 +4744,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>0.3888723655596165</v>
+        <v>0.3888601987752296</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -4746,7 +4752,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>0.3885047886217572</v>
+        <v>0.3879455180832845</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -4754,7 +4760,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>0.3882147975224559</v>
+        <v>0.3877878112458046</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -4762,7 +4768,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>0.3877878112458046</v>
+        <v>0.3874288866586246</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -4770,7 +4776,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>0.3873895093717554</v>
+        <v>0.3874068829001722</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -4778,7 +4784,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>0.3862622075295588</v>
+        <v>0.3859202857509851</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -4786,7 +4792,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>0.3855433627261944</v>
+        <v>0.3858151301467525</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -4794,7 +4800,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.3854149017119475</v>
+        <v>0.3843696556370066</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -4802,7 +4808,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0.3842840536888366</v>
+        <v>0.3820825967218124</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -4810,7 +4816,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>0.3832653438526969</v>
+        <v>0.3808206978388975</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -4818,7 +4824,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.3826615796374329</v>
+        <v>0.3805109036235601</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -4826,7 +4832,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>0.3820825967218124</v>
+        <v>0.3804268036172316</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -4834,7 +4840,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.3816397733398167</v>
+        <v>0.3793723998761764</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -4842,7 +4848,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.3811584170892297</v>
+        <v>0.3792961071260326</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -4850,7 +4856,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>0.3792781308212916</v>
+        <v>0.3789689008669825</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -4858,7 +4864,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>0.3791657621820448</v>
+        <v>0.3782328163719244</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -4866,7 +4872,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>0.3789969956998129</v>
+        <v>0.3779787481219476</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -4874,7 +4880,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>0.3782328163719244</v>
+        <v>0.377391377957077</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -4882,7 +4888,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>0.377736690563143</v>
+        <v>0.3753022940456066</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -4890,7 +4896,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>0.3765109513043918</v>
+        <v>0.3751634265967629</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -4898,7 +4904,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>0.3761536901670821</v>
+        <v>0.3751634265967629</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -4906,7 +4912,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>0.3756203159558231</v>
+        <v>0.3746751454010728</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -4914,7 +4920,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>0.3751634265967629</v>
+        <v>0.3744930215112956</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -4922,7 +4928,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>0.3751634265967629</v>
+        <v>0.3744841156745204</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -4930,7 +4936,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>0.3736169962488836</v>
+        <v>0.3741818505750498</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -4938,7 +4944,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>0.3722242528366893</v>
+        <v>0.3738747744861657</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -4946,7 +4952,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>0.3710111717427553</v>
+        <v>0.373010185701462</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -4954,7 +4960,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>0.3703673024095402</v>
+        <v>0.3717809701798349</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -4962,7 +4968,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>0.3682521870252691</v>
+        <v>0.3713982090054553</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -4970,7 +4976,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>0.3669669062101957</v>
+        <v>0.3700089362282104</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -4978,7 +4984,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0.3666615930547925</v>
+        <v>0.3682521870252691</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -4986,7 +4992,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>0.3663351794294536</v>
+        <v>0.3673068143675091</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -4994,7 +5000,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>0.3651899457716425</v>
+        <v>0.3636609859494138</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -5002,7 +5008,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>0.3648474226405836</v>
+        <v>0.3610411702141452</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -5010,7 +5016,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>0.3640953825558897</v>
+        <v>0.3592790183645256</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -5018,7 +5024,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>0.3631443531617042</v>
+        <v>0.3590285399717843</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -5026,7 +5032,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>0.3629828159809361</v>
+        <v>0.3584588551598724</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -5034,7 +5040,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>0.3599604016180242</v>
+        <v>0.3567023111896255</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -5042,7 +5048,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>0.3587527739327379</v>
+        <v>0.3551936415925716</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -5050,7 +5056,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>0.3584588551598724</v>
+        <v>0.3540209712017837</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -5058,7 +5064,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>0.3581863531740097</v>
+        <v>0.3540202651010391</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -5066,7 +5072,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>0.3570918892543196</v>
+        <v>0.3533677021166706</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -5074,7 +5080,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>0.35671604981598</v>
+        <v>0.3525509278143941</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -5082,7 +5088,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>0.3558105011163137</v>
+        <v>0.3495858392047704</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -5090,7 +5096,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>0.3530942842951763</v>
+        <v>0.349574006496052</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -5098,7 +5104,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>0.352953492928423</v>
+        <v>0.3483990596480284</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -5106,7 +5112,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>0.3514547750116646</v>
+        <v>0.3476287495152244</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -5114,7 +5120,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>0.3505609807901415</v>
+        <v>0.3474389353705964</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -5122,7 +5128,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>0.3505025898583249</v>
+        <v>0.3470972241211541</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -5130,7 +5136,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>0.3500481531359412</v>
+        <v>0.345314107476612</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -5138,7 +5144,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>0.3499135974606429</v>
+        <v>0.3451609627275103</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -5146,7 +5152,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>0.3486197874304586</v>
+        <v>0.344340297896959</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -5154,7 +5160,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>0.348348950493073</v>
+        <v>0.3439761464808457</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -5162,7 +5168,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>0.3468829342136335</v>
+        <v>0.3425038731038033</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -5170,7 +5176,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>0.3456458071419359</v>
+        <v>0.3416345483237093</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -5178,7 +5184,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>0.341247778242088</v>
+        <v>0.3399050306308837</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -5186,7 +5192,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>0.3379788287856922</v>
+        <v>0.3396236574352007</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -5194,7 +5200,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>0.3367919167908857</v>
+        <v>0.3396194285610568</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -5202,7 +5208,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>0.3357727735061802</v>
+        <v>0.3393069374847137</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -5210,7 +5216,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>0.3357497965179963</v>
+        <v>0.3388625708222808</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -5218,7 +5224,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>0.3345046247140269</v>
+        <v>0.3387762839194834</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -5226,7 +5232,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>0.3340905824072107</v>
+        <v>0.3383566714806399</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -5234,7 +5240,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>0.3339663614210284</v>
+        <v>0.3379913954664002</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -5242,7 +5248,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>0.3336897370004317</v>
+        <v>0.3374828693513308</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -5250,7 +5256,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>0.3334879441611094</v>
+        <v>0.3372214418598336</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -5258,7 +5264,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>0.3330858605607909</v>
+        <v>0.336793581402133</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -5266,7 +5272,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>0.3325806060114185</v>
+        <v>0.3367157109454488</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -5274,7 +5280,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>0.3317673073191607</v>
+        <v>0.3361208347747693</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -5282,7 +5288,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>0.3317033888658192</v>
+        <v>0.3360111325612891</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -5290,7 +5296,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>0.3314199917074221</v>
+        <v>0.3358330426773168</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -5298,7 +5304,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>0.3302825647275323</v>
+        <v>0.3354730166739084</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -5306,7 +5312,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>0.3300493537983225</v>
+        <v>0.3353556448865707</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -5314,7 +5320,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>0.3290770622010311</v>
+        <v>0.3350583672207972</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -5322,7 +5328,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>0.329068470365516</v>
+        <v>0.3346305631872242</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -5330,7 +5336,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>0.3288322325667914</v>
+        <v>0.3339663614210284</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -5338,7 +5344,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>0.3282096841221891</v>
+        <v>0.3338385800635102</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -5346,7 +5352,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>0.3279009146306526</v>
+        <v>0.333351046763477</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -5354,7 +5360,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>0.3275921955719334</v>
+        <v>0.3327435000869259</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -5362,7 +5368,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>0.3271062899177586</v>
+        <v>0.3324947963697624</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -5370,7 +5376,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>0.3269430397613857</v>
+        <v>0.3314187831372091</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -5378,7 +5384,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>0.326728955297152</v>
+        <v>0.3300951556767779</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -5386,7 +5392,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>0.3265144746866691</v>
+        <v>0.3274398135534831</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -5394,7 +5400,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>0.3261386811376497</v>
+        <v>0.3269430397613857</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -5402,7 +5408,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>0.3237880403254707</v>
+        <v>0.3259402951219561</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -5410,7 +5416,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>0.32376733358553</v>
+        <v>0.3256413285970281</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -5418,7 +5424,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>0.323359715978877</v>
+        <v>0.3249805702193509</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -5426,7 +5432,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>0.3231848908040516</v>
+        <v>0.3247204679405904</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -5434,7 +5440,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>0.3226771681589879</v>
+        <v>0.3241905891655195</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -5442,7 +5448,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>0.3224161750112975</v>
+        <v>0.3238902351392039</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -5450,7 +5456,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>0.322313549350131</v>
+        <v>0.322617549491518</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -5458,7 +5464,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>0.3217379403186398</v>
+        <v>0.32192409627291</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -5466,7 +5472,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>0.3206916175175092</v>
+        <v>0.3218169449169495</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -5474,7 +5480,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>0.3202183728134955</v>
+        <v>0.3200539272163574</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -5482,7 +5488,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>0.3186285367445827</v>
+        <v>0.3165379987004291</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -5490,7 +5496,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>0.3184683940281428</v>
+        <v>0.3160685084119341</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -5498,7 +5504,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>0.3167229919738066</v>
+        <v>0.3137781917338913</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -5506,7 +5512,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>0.3120816510950426</v>
+        <v>0.3135376421627696</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -5514,7 +5520,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>0.3112240294739212</v>
+        <v>0.3127480930172155</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -5522,7 +5528,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>0.3111666339540642</v>
+        <v>0.3127214630490474</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -5530,7 +5536,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>0.3102013436378865</v>
+        <v>0.3126507495431008</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -5538,7 +5544,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>0.3076286843471099</v>
+        <v>0.3117708849430794</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -5546,7 +5552,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>0.3069477225236144</v>
+        <v>0.3109897469705549</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -5554,7 +5560,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>0.3060170327009328</v>
+        <v>0.3100962408756012</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -5562,7 +5568,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>0.3053273076820457</v>
+        <v>0.3096082801842461</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -5570,7 +5576,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>0.3033090144675601</v>
+        <v>0.3092076287498666</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -5578,7 +5584,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>0.3000905266463392</v>
+        <v>0.3091490211489127</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -5586,7 +5592,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>0.3000142677504525</v>
+        <v>0.3068868335501866</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -5594,7 +5600,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>0.2999799736980571</v>
+        <v>0.3059567352293167</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -5602,7 +5608,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>0.2992281811926478</v>
+        <v>0.3055716146571219</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -5610,7 +5616,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>0.298994457554526</v>
+        <v>0.3054076330749453</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -5618,7 +5624,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>0.2980148551772852</v>
+        <v>0.3027696782381781</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -5626,7 +5632,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>0.294752252395452</v>
+        <v>0.3012406710953379</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -5634,7 +5640,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>0.2947099602858521</v>
+        <v>0.2987743348253395</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -5642,7 +5648,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>0.2943387607079961</v>
+        <v>0.298168250204832</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -5650,7 +5656,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>0.2936136740934119</v>
+        <v>0.2972740361672359</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -5658,7 +5664,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>0.290811188117849</v>
+        <v>0.2942813024052713</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -5666,7 +5672,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>0.2888452948353957</v>
+        <v>0.2938427452359449</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -5674,7 +5680,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>0.2876826887577322</v>
+        <v>0.2937515170197167</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -5682,7 +5688,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>0.2876648953080947</v>
+        <v>0.2924387727629676</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -5690,7 +5696,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>0.2875165274488329</v>
+        <v>0.291578495722987</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -5698,7 +5704,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>0.2839791979925896</v>
+        <v>0.2903821833619211</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -5706,7 +5712,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>0.2838900243457239</v>
+        <v>0.2887822281680785</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -5714,7 +5720,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>0.2837079775714824</v>
+        <v>0.2877379847689105</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -5722,7 +5728,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>0.2732797834686829</v>
+        <v>0.2876826887577322</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -5730,7 +5736,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>0.2725050551482544</v>
+        <v>0.287334258378342</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -5738,7 +5744,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>0.2722558450376935</v>
+        <v>0.2853074874940305</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -5746,7 +5752,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>0.2693645124644426</v>
+        <v>0.2835531298112026</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -5754,7 +5760,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>0.2679832548331853</v>
+        <v>0.2806066028283638</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -5762,7 +5768,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>0.266184986328186</v>
+        <v>0.2803729484728787</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -5770,7 +5776,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>0.2605362280351968</v>
+        <v>0.2774097124567581</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -5778,7 +5784,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>0.2602526153170521</v>
+        <v>0.2732797834686829</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -5786,7 +5792,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>0.2556547337060187</v>
+        <v>0.2729385569336409</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -5794,7 +5800,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>0.2526664722876757</v>
+        <v>0.2602526153170521</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -5802,7 +5808,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>0.2405730179223367</v>
+        <v>0.2573381307265223</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -5810,7 +5816,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>0.238509325889076</v>
+        <v>0.2556547337060187</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -5818,7 +5824,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>0.2359083585755966</v>
+        <v>0.2526664722876757</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -5826,7 +5832,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>0.2354341193282801</v>
+        <v>0.2500407332890662</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -5834,7 +5840,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>0.2351205241488312</v>
+        <v>0.238509325889076</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -5842,7 +5848,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>0.2309231942584267</v>
+        <v>0.2330144442634128</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -5850,7 +5856,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>0.2274228295740219</v>
+        <v>0.2204655326304032</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -5858,7 +5864,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>0.2219118547768628</v>
+        <v>0.2192374581100327</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -5866,7 +5872,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>0.2192374581100327</v>
+        <v>0.2045156640335752</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -5874,7 +5880,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>0.2150480770373755</v>
+        <v>0.2032089930583119</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -5882,7 +5888,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>0.2147977897589932</v>
+        <v>0.2022678914945202</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -5890,7 +5896,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>0.2093566674064566</v>
+        <v>0.2004611218474415</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -5898,7 +5904,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>0.2045156640335752</v>
+        <v>0.1900708892408287</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -5906,7 +5912,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>0.1870755293059916</v>
+        <v>0.180047417563566</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -5914,7 +5920,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>0.1859568068239652</v>
+        <v>0.1755217061395076</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -5922,7 +5928,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>0.1837950911298307</v>
+        <v>0.1640490774966556</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -5930,7 +5936,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>0.1755217061395076</v>
+        <v>0.1597463836772837</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -5938,7 +5944,7 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>0.163866407602447</v>
+        <v>0.1489789287547449</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -5946,7 +5952,7 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>0.148023023324765</v>
+        <v>0.1476866698481976</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -5954,7 +5960,7 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>0.1464939322622094</v>
+        <v>0.1459353845409159</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -5962,7 +5968,7 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>0.1437067726490053</v>
+        <v>0.1449223618450293</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -5970,7 +5976,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>0.135298376442843</v>
+        <v>0.1436341627762081</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -5978,7 +5984,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>0.1320261683666086</v>
+        <v>0.1366200861358058</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -5986,7 +5992,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>0.1289540209195219</v>
+        <v>0.1362693991418942</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -5994,7 +6000,7 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>0.1246160549184436</v>
+        <v>0.1358589052054116</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -6002,7 +6008,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>0.1106455850735957</v>
+        <v>0.1115724371749751</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -6010,7 +6016,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>0.1086028679370237</v>
+        <v>0.07604328984952757</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -6018,7 +6024,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>0.07711945413545895</v>
+        <v>0.06806787588749241</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -6026,7 +6032,7 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>0.06806787588749241</v>
+        <v>0.0666857592448169</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -6034,7 +6040,7 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>0.05498649732509842</v>
+        <v>0.06023924797863089</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -6042,7 +6048,7 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>0.04738605564009157</v>
+        <v>0.0515151187623939</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -6050,7 +6056,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>0.03979172080311355</v>
+        <v>0.04738605564009157</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -6058,7 +6064,7 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>0.03606881649299543</v>
+        <v>0.04521006568141384</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -6066,7 +6072,23 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>0.03185902849542144</v>
+        <v>0.0381090284954213</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B519">
+        <v>0.03663442735272393</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
+      <c r="A520" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B520">
+        <v>0.03065710541849831</v>
       </c>
     </row>
   </sheetData>
